--- a/TongBaoCao.xlsx
+++ b/TongBaoCao.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>Bảng phân công công việc</t>
   </si>
@@ -117,7 +112,40 @@
     <t>5h</t>
   </si>
   <si>
-    <t>14h</t>
+    <t>Tuần 7</t>
+  </si>
+  <si>
+    <t>code chức năng 2 client</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>code chức năng 1 login</t>
+  </si>
+  <si>
+    <t>1h30'</t>
+  </si>
+  <si>
+    <t>Tuần 8</t>
+  </si>
+  <si>
+    <t>tạo tài khoản và sử dụng trello</t>
+  </si>
+  <si>
+    <t>nghiên cứu cách dùng trello</t>
+  </si>
+  <si>
+    <t>tìm hiểu công cụ</t>
+  </si>
+  <si>
+    <t>5h30'</t>
+  </si>
+  <si>
+    <t>20h30'</t>
+  </si>
+  <si>
+    <t>24h30'</t>
   </si>
 </sst>
 </file>
@@ -523,6 +551,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,15 +614,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,42 +621,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,7 +685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F29"/>
+  <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -915,13 +943,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -936,95 +964,95 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="31"/>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="31"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -1108,11 +1136,11 @@
       <c r="C19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -1195,48 +1223,287 @@
       <c r="B27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="37"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="C45" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="34"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
+  <mergeCells count="72">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C15:D15"/>
@@ -1247,29 +1514,17 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
